--- a/DATA_goal/Junction_Flooding_20.xlsx
+++ b/DATA_goal/Junction_Flooding_20.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH12"/>
+  <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1690,110 +1690,6 @@
         <v>12.15</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>43741.07707175926</v>
-      </c>
-      <c r="B12" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>24.04</v>
-      </c>
-      <c r="F12" s="4" t="n">
-        <v>19.64</v>
-      </c>
-      <c r="G12" s="4" t="n">
-        <v>8.640000000000001</v>
-      </c>
-      <c r="H12" s="4" t="n">
-        <v>34.54</v>
-      </c>
-      <c r="I12" s="4" t="n">
-        <v>13.38</v>
-      </c>
-      <c r="J12" s="4" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="K12" s="4" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="L12" s="4" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="M12" s="4" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="N12" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="O12" s="4" t="n">
-        <v>8.65</v>
-      </c>
-      <c r="P12" s="4" t="n">
-        <v>12.32</v>
-      </c>
-      <c r="Q12" s="4" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="R12" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="S12" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="T12" s="4" t="n">
-        <v>124.3</v>
-      </c>
-      <c r="U12" s="4" t="n">
-        <v>24.22</v>
-      </c>
-      <c r="V12" s="4" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="W12" s="4" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="X12" s="4" t="n">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="Y12" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Z12" s="4" t="n">
-        <v>16.75</v>
-      </c>
-      <c r="AA12" s="4" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="AB12" s="4" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="AC12" s="4" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="AD12" s="4" t="n">
-        <v>10.13</v>
-      </c>
-      <c r="AE12" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AF12" s="4" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="AG12" s="4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AH12" s="4" t="n">
-        <v>9.98</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DATA_goal/Junction_Flooding_20.xlsx
+++ b/DATA_goal/Junction_Flooding_20.xlsx
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
@@ -458,19 +458,19 @@
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>43741.00763888889</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>12.77</v>
+        <v>1.28</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>8.42</v>
+        <v>0.84</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.49</v>
+        <v>0.35</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>27.78</v>
+        <v>2.78</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>20.77</v>
+        <v>2.08</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>9.82</v>
+        <v>0.98</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>29.19</v>
+        <v>2.92</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>15.71</v>
+        <v>1.57</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.22</v>
+        <v>0.62</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>10.93</v>
+        <v>1.09</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>11.76</v>
+        <v>1.18</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.26</v>
+        <v>0.33</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10.15</v>
+        <v>1.02</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>13.87</v>
+        <v>1.39</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.119999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.77</v>
+        <v>0.28</v>
       </c>
       <c r="S2" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>14.71</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="Z2" s="4" t="n">
         <v>1.59</v>
       </c>
-      <c r="T2" s="4" t="n">
-        <v>147.12</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>28.07</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>18</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>15.86</v>
-      </c>
       <c r="AA2" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>7.65</v>
+        <v>0.77</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.07</v>
+        <v>0.91</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>11.38</v>
+        <v>1.14</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.87</v>
+        <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>26.43</v>
+        <v>2.64</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.96</v>
+        <v>0.5</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>11.71</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>43741.01458333333</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>16.66</v>
+        <v>1.67</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>12.08</v>
+        <v>1.21</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.77</v>
+        <v>0.18</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>36.52</v>
+        <v>3.65</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>29.02</v>
+        <v>2.9</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>12.99</v>
+        <v>1.3</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>48.99</v>
+        <v>4.9</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>20.36</v>
+        <v>2.04</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>12.83</v>
+        <v>1.28</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>14.59</v>
+        <v>1.46</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>15.59</v>
+        <v>1.56</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.23</v>
+        <v>0.42</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>13.16</v>
+        <v>1.32</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>18.52</v>
+        <v>1.85</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>11.41</v>
+        <v>1.14</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.38</v>
+        <v>0.14</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>192.96</v>
+        <v>19.3</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>36.78</v>
+        <v>3.68</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>12.15</v>
+        <v>1.21</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>24.35</v>
+        <v>2.44</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>12.7</v>
+        <v>1.27</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.31</v>
+        <v>0.23</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>24.48</v>
+        <v>2.45</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>10.73</v>
+        <v>1.07</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>9.67</v>
+        <v>0.97</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>11.39</v>
+        <v>1.14</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>15.25</v>
+        <v>1.53</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.16</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>44.9</v>
+        <v>4.49</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.68</v>
+        <v>0.67</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>15.19</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>43741.02152777778</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>11.41</v>
+        <v>1.14</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.32</v>
+        <v>0.83</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.14</v>
+        <v>0.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>25.07</v>
+        <v>2.51</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>19.91</v>
+        <v>1.99</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.9</v>
+        <v>0.89</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>36.82</v>
+        <v>3.68</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>13.96</v>
+        <v>1.4</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.05</v>
+        <v>0.61</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>8.779999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>10.03</v>
+        <v>1</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>10.74</v>
+        <v>1.07</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.9</v>
+        <v>0.29</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>9.02</v>
+        <v>0.9</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>12.72</v>
+        <v>1.27</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.85</v>
+        <v>0.79</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>130.02</v>
+        <v>13</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>25.3</v>
+        <v>2.53</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>8.33</v>
+        <v>0.83</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>16.75</v>
+        <v>1.67</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>8.73</v>
+        <v>0.87</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.57</v>
+        <v>0.16</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>17.76</v>
+        <v>1.78</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.36</v>
+        <v>0.74</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.64</v>
+        <v>0.66</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.81</v>
+        <v>0.78</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>10.49</v>
+        <v>1.05</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>33.75</v>
+        <v>3.38</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.57</v>
+        <v>0.46</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>10.41</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>43741.02847222222</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.18</v>
+        <v>0.52</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.73</v>
+        <v>0.37</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>11.49</v>
+        <v>1.15</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.02</v>
+        <v>0.4</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>19.31</v>
+        <v>1.93</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.4</v>
+        <v>0.64</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.74</v>
+        <v>0.27</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.84</v>
+        <v>0.38</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.59</v>
+        <v>0.46</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.97</v>
+        <v>0.5</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.33</v>
+        <v>0.13</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.14</v>
+        <v>0.41</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.81</v>
+        <v>0.58</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.72</v>
+        <v>0.37</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>55.64</v>
+        <v>5.56</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>11.73</v>
+        <v>1.17</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.82</v>
+        <v>0.38</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>7.67</v>
+        <v>0.77</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.96</v>
+        <v>0.4</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>9.050000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.37</v>
+        <v>0.34</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.11</v>
+        <v>0.31</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.8</v>
+        <v>0.48</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>17.89</v>
+        <v>1.79</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.04</v>
+        <v>0.2</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.77</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>43741.03541666667</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>8.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>5.95</v>
+        <v>0.6</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>17.76</v>
+        <v>1.78</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>14.18</v>
+        <v>1.42</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>6.31</v>
+        <v>0.63</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>24.26</v>
+        <v>2.43</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>4.3</v>
+        <v>0.43</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>6.27</v>
+        <v>0.63</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>7.12</v>
+        <v>0.71</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>7.62</v>
+        <v>0.76</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>2.05</v>
+        <v>0.21</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>6.39</v>
+        <v>0.64</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>9</v>
+        <v>0.9</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>5.54</v>
+        <v>0.55</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>89.93000000000001</v>
+        <v>8.99</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>17.82</v>
+        <v>1.78</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>5.9</v>
+        <v>0.59</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>11.82</v>
+        <v>1.18</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>6.21</v>
+        <v>0.62</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>11.75</v>
+        <v>1.17</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>5.21</v>
+        <v>0.52</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>4.69</v>
+        <v>0.47</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>5.51</v>
+        <v>0.55</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>7.46</v>
+        <v>0.75</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>21.98</v>
+        <v>2.2</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>3.25</v>
+        <v>0.32</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>7.38</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>43741.04236111111</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>4.72</v>
+        <v>0.47</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>3.46</v>
+        <v>0.35</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>10.45</v>
+        <v>1.04</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>8.220000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>3.68</v>
+        <v>0.37</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>16.43</v>
+        <v>1.64</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>5.82</v>
+        <v>0.58</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>2.52</v>
+        <v>0.25</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>3.59</v>
+        <v>0.36</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>4.19</v>
+        <v>0.42</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>4.51</v>
+        <v>0.45</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>1.21</v>
+        <v>0.12</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>3.76</v>
+        <v>0.38</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>5.3</v>
+        <v>0.53</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>3.32</v>
+        <v>0.33</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>49.91</v>
+        <v>4.99</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>10.62</v>
+        <v>1.06</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>3.47</v>
+        <v>0.35</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>7.01</v>
+        <v>0.7</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>7.83</v>
+        <v>0.78</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>3.07</v>
+        <v>0.31</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>2.79</v>
+        <v>0.28</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>3.27</v>
+        <v>0.33</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>4.38</v>
+        <v>0.44</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>15.15</v>
+        <v>1.52</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>1.88</v>
+        <v>0.19</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>4.34</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>43741.04930555556</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>9.06</v>
+        <v>0.91</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>6.74</v>
+        <v>0.67</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>19.86</v>
+        <v>1.99</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>16.05</v>
+        <v>1.61</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>7.1</v>
+        <v>0.71</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>26.25</v>
+        <v>2.62</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>11.05</v>
+        <v>1.11</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>4.86</v>
+        <v>0.49</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>7.15</v>
+        <v>0.71</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>7.96</v>
+        <v>0.8</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>8.5</v>
+        <v>0.85</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>2.29</v>
+        <v>0.23</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>7.14</v>
+        <v>0.71</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>10.11</v>
+        <v>1.01</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>6.09</v>
+        <v>0.61</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>101.38</v>
+        <v>10.14</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>19.89</v>
+        <v>1.99</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>6.59</v>
+        <v>0.66</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>13.29</v>
+        <v>1.33</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>6.99</v>
+        <v>0.7</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.11</v>
+        <v>0.11</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>12.87</v>
+        <v>1.29</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>5.82</v>
+        <v>0.58</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>5.2</v>
+        <v>0.52</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>6.11</v>
+        <v>0.61</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>8.359999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>23.73</v>
+        <v>2.37</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>3.67</v>
+        <v>0.37</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>8.24</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>43741.05625</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>11.47</v>
+        <v>1.15</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>8.56</v>
+        <v>0.86</v>
       </c>
       <c r="D9" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="L9" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M9" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N9" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="O9" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="P9" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Q9" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="R9" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S9" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="V9" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="W9" s="4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="X9" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="Y9" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AA9" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AB9" s="4" t="n">
         <v>0.65</v>
       </c>
-      <c r="E9" s="4" t="n">
-        <v>25.08</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>20.42</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>34.28</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>13.96</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>10.71</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>12.83</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>130.01</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>25.21</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>16.92</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>16.82</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>6.53</v>
-      </c>
       <c r="AC9" s="4" t="n">
-        <v>7.68</v>
+        <v>0.77</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>10.57</v>
+        <v>1.06</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>31.16</v>
+        <v>3.12</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>4.67</v>
+        <v>0.47</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>10.41</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>43741.06319444445</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>4.75</v>
+        <v>0.47</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>3.52</v>
+        <v>0.35</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>10.45</v>
+        <v>1.05</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>8.359999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>3.71</v>
+        <v>0.37</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>17.84</v>
+        <v>1.78</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>5.82</v>
+        <v>0.58</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>2.58</v>
+        <v>0.26</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>3.69</v>
+        <v>0.37</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>4.19</v>
+        <v>0.42</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>4.49</v>
+        <v>0.45</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>1.21</v>
+        <v>0.12</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>3.76</v>
+        <v>0.38</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>5.36</v>
+        <v>0.54</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>3.25</v>
+        <v>0.33</v>
       </c>
       <c r="R10" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S10" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="U10" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="V10" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="W10" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="X10" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="Y10" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Z10" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AA10" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AB10" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AC10" s="4" t="n">
         <v>0.32</v>
       </c>
-      <c r="S10" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>49.93</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>8.41</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>3.24</v>
-      </c>
       <c r="AD10" s="4" t="n">
-        <v>4.4</v>
+        <v>0.44</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>16.55</v>
+        <v>1.65</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>1.91</v>
+        <v>0.19</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>4.34</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_20.xlsx
+++ b/DATA_goal/Junction_Flooding_20.xlsx
@@ -450,7 +450,7 @@
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
@@ -458,20 +458,20 @@
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
@@ -655,103 +655,103 @@
         <v>44076.67430555556</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.83</v>
+        <v>18.26</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.22</v>
+        <v>12.15</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.4</v>
+        <v>4.02</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.88</v>
+        <v>38.83</v>
       </c>
       <c r="F2" s="4" t="n">
+        <v>30.97</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>45.02</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>15.28</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>210.1</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>26.04</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>3.1</v>
       </c>
-      <c r="G2" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>21.01</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.31</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>2.29</v>
+        <v>22.94</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.16</v>
+        <v>11.65</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.06</v>
+        <v>10.6</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.24</v>
+        <v>12.44</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.58</v>
+        <v>15.8</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.45</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.99</v>
+        <v>39.91</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.72</v>
+        <v>7.2</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.65</v>
+        <v>16.49</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44076.68125</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.87</v>
+        <v>18.74</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.34</v>
+        <v>13.36</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.89</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.06</v>
+        <v>40.56</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.28</v>
+        <v>32.84</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.47</v>
+        <v>14.74</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.63</v>
+        <v>56.28</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.27</v>
+        <v>22.69</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.99</v>
+        <v>9.85</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.45</v>
+        <v>14.53</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.62</v>
+        <v>16.23</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.7</v>
+        <v>16.99</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.71</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.47</v>
+        <v>14.66</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.07</v>
+        <v>20.7</v>
       </c>
       <c r="Q3" s="4" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>215.86</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>41.02</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>13.53</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>27.27</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>14.18</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>27.51</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>10.77</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>12.63</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>16.91</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>1.26</v>
       </c>
-      <c r="R3" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>21.59</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.13</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>5.12</v>
+        <v>51.19</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.75</v>
+        <v>7.5</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.69</v>
+        <v>16.92</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44076.68819444445</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.78</v>
+        <v>17.78</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.29</v>
+        <v>12.89</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.37</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.86</v>
+        <v>38.58</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.14</v>
+        <v>31.39</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.4</v>
+        <v>13.99</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.48</v>
+        <v>54.85</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.15</v>
+        <v>21.52</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.95</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.39</v>
+        <v>13.93</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.55</v>
+        <v>15.47</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.63</v>
+        <v>16.25</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.47</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.39</v>
+        <v>13.91</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.97</v>
+        <v>19.71</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.19</v>
+        <v>11.86</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.06</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>20.44</v>
+        <v>204.42</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.89</v>
+        <v>38.92</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.28</v>
+        <v>12.84</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.6</v>
+        <v>26</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.36</v>
+        <v>13.58</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.25</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.65</v>
+        <v>26.5</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.34</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.01</v>
+        <v>10.15</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.19</v>
+        <v>11.92</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.62</v>
+        <v>16.17</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.98</v>
+        <v>49.79</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.72</v>
+        <v>7.16</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.61</v>
+        <v>16.05</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44076.69513888889</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.49</v>
+        <v>14.89</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.08</v>
+        <v>10.84</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.05</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.23</v>
+        <v>32.35</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.63</v>
+        <v>26.34</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.17</v>
+        <v>11.72</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.67</v>
+        <v>46.71</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.8</v>
+        <v>18.03</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.79</v>
+        <v>7.94</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.17</v>
+        <v>11.69</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.3</v>
+        <v>12.98</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.37</v>
+        <v>13.65</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.17</v>
+        <v>11.65</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.65</v>
+        <v>16.53</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.99</v>
+        <v>9.92</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>17.01</v>
+        <v>170.08</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.26</v>
+        <v>32.63</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.08</v>
+        <v>10.76</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.18</v>
+        <v>21.82</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.14</v>
+        <v>11.41</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.85</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.25</v>
+        <v>22.45</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.95</v>
+        <v>9.5</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.49</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.36</v>
+        <v>13.59</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.24</v>
+        <v>42.4</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.35</v>
+        <v>13.45</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_20.xlsx
+++ b/DATA_goal/Junction_Flooding_20.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44076.67430555556</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>18.26</v>
+        <v>18.256</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>12.15</v>
+        <v>12.153</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.02</v>
+        <v>4.015</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>38.83</v>
+        <v>38.832</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>30.97</v>
+        <v>30.967</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>14.37</v>
+        <v>14.367</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>45.02</v>
+        <v>45.024</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>22.11</v>
+        <v>22.106</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>9.17</v>
+        <v>9.170999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>13.75</v>
+        <v>13.751</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>15.28</v>
+        <v>15.281</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>15.89</v>
+        <v>15.885</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.59</v>
+        <v>4.586</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>14.29</v>
+        <v>14.287</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>19.9</v>
+        <v>19.896</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>12.29</v>
+        <v>12.285</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.42</v>
+        <v>3.423</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.24</v>
+        <v>2.238</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>210.1</v>
+        <v>210.098</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>39.7</v>
+        <v>39.697</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>13.19</v>
+        <v>13.187</v>
       </c>
       <c r="W2" s="4" t="n">
         <v>26.04</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>13.22</v>
+        <v>13.224</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.1</v>
+        <v>3.103</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>22.94</v>
+        <v>22.935</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>11.65</v>
+        <v>11.648</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>10.6</v>
+        <v>10.595</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>12.44</v>
+        <v>12.441</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>15.8</v>
+        <v>15.796</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.45</v>
+        <v>3.454</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>39.91</v>
+        <v>39.912</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.2</v>
+        <v>7.199</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>16.49</v>
+        <v>16.486</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44076.68125</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>18.74</v>
+        <v>18.737</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>13.36</v>
+        <v>13.357</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.89</v>
+        <v>1.888</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>40.56</v>
+        <v>40.564</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>32.84</v>
+        <v>32.843</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>14.74</v>
+        <v>14.745</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>56.28</v>
+        <v>56.281</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>22.69</v>
+        <v>22.687</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.85</v>
+        <v>9.853</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>14.53</v>
+        <v>14.528</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>16.23</v>
+        <v>16.231</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>16.99</v>
+        <v>16.994</v>
       </c>
       <c r="N3" s="4" t="n">
         <v>4.71</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>14.66</v>
+        <v>14.663</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>20.7</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>12.58</v>
+        <v>12.577</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.56</v>
+        <v>1.562</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.14</v>
+        <v>1.143</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>215.86</v>
+        <v>215.863</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>41.02</v>
+        <v>41.016</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>13.53</v>
+        <v>13.534</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>27.27</v>
+        <v>27.268</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>14.18</v>
+        <v>14.175</v>
       </c>
       <c r="Y3" s="4" t="n">
         <v>2.55</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>27.51</v>
+        <v>27.511</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.95</v>
+        <v>11.955</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.77</v>
+        <v>10.766</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>12.63</v>
+        <v>12.634</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>16.91</v>
+        <v>16.906</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.26</v>
+        <v>1.265</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>51.19</v>
+        <v>51.188</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.5</v>
+        <v>7.502</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>16.92</v>
+        <v>16.921</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44076.68819444445</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>17.78</v>
+        <v>17.776</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>12.89</v>
+        <v>12.888</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.37</v>
+        <v>1.367</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>38.58</v>
+        <v>38.583</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>31.39</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>13.99</v>
+        <v>13.989</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>54.85</v>
+        <v>54.849</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>21.52</v>
+        <v>21.524</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>9.452</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>13.93</v>
+        <v>13.929</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>15.47</v>
+        <v>15.475</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>16.25</v>
+        <v>16.252</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.47</v>
+        <v>4.469</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>13.91</v>
+        <v>13.911</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>19.71</v>
+        <v>19.712</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>11.86</v>
+        <v>11.858</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.06</v>
+        <v>1.056</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.86</v>
+        <v>0.864</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>204.42</v>
+        <v>204.419</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>38.92</v>
+        <v>38.924</v>
       </c>
       <c r="V4" s="4" t="n">
         <v>12.84</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>26</v>
+        <v>25.999</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>13.58</v>
+        <v>13.579</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.25</v>
+        <v>2.248</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>26.5</v>
+        <v>26.501</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>11.34</v>
+        <v>11.342</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>10.15</v>
+        <v>10.148</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>11.92</v>
+        <v>11.915</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>16.17</v>
+        <v>16.173</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>49.79</v>
+        <v>49.788</v>
       </c>
       <c r="AG4" s="4" t="n">
         <v>7.16</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>16.05</v>
+        <v>16.053</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>13.45</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44076.70207175926</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>15.85</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>34.46</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>28.15</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>12.48</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>48.69</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>12.54</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>13.83</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>14.57</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>12.41</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>17.63</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>181.52</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>23.28</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>23.57</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>10.57</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>44.16</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>14.32</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_20.xlsx
+++ b/DATA_goal/Junction_Flooding_20.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44076.69513888889</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>14.89</v>
+        <v>14.893</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.84</v>
+        <v>10.844</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.05</v>
+        <v>1.055</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>32.35</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>26.34</v>
+        <v>26.343</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>11.72</v>
+        <v>11.721</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>46.71</v>
+        <v>46.712</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>18.03</v>
+        <v>18.033</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.94</v>
+        <v>7.944</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.69</v>
+        <v>11.693</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.98</v>
+        <v>12.984</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>13.65</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.74</v>
+        <v>3.745</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.65</v>
+        <v>11.655</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>16.53</v>
+        <v>16.533</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.92</v>
+        <v>9.923999999999999</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.8</v>
+        <v>0.797</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.67</v>
+        <v>0.674</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>170.08</v>
+        <v>170.081</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>32.63</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.76</v>
+        <v>10.758</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>21.82</v>
+        <v>21.818</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.41</v>
+        <v>11.407</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.85</v>
+        <v>1.849</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>22.45</v>
+        <v>22.451</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.5</v>
+        <v>9.502000000000001</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.49</v>
+        <v>8.489000000000001</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.970000000000001</v>
+        <v>9.968</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.59</v>
+        <v>13.585</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.556</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>42.4</v>
+        <v>42.403</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6</v>
+        <v>6.005</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>13.45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44076.70207175926</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>34.46</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>28.15</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>48.69</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>14.57</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>17.63</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>181.52</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>23.28</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>23.57</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>44.16</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>14.32</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_20.xlsx
+++ b/DATA_goal/Junction_Flooding_20.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44076.69513888889</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>14.893</v>
+        <v>14.89</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.844</v>
+        <v>10.84</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.055</v>
+        <v>1.05</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>32.35</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>26.343</v>
+        <v>26.34</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>11.721</v>
+        <v>11.72</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>46.712</v>
+        <v>46.71</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>18.033</v>
+        <v>18.03</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.944</v>
+        <v>7.94</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.693</v>
+        <v>11.69</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.984</v>
+        <v>12.98</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>13.65</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.745</v>
+        <v>3.74</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.655</v>
+        <v>11.65</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>16.533</v>
+        <v>16.53</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.923999999999999</v>
+        <v>9.92</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.797</v>
+        <v>0.8</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.674</v>
+        <v>0.67</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>170.081</v>
+        <v>170.08</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>32.63</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.758</v>
+        <v>10.76</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>21.818</v>
+        <v>21.82</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.407</v>
+        <v>11.41</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.849</v>
+        <v>1.85</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>22.451</v>
+        <v>22.45</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.502000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.489000000000001</v>
+        <v>8.49</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.968</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.585</v>
+        <v>13.59</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.556</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>42.403</v>
+        <v>42.4</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.005</v>
+        <v>6</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>13.45</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44076.70207175926</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>15.85</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>34.46</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>28.15</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>12.48</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>48.69</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>12.54</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>13.83</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>14.57</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>12.41</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>17.63</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>181.52</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>23.28</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>23.57</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>10.57</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>44.16</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>14.32</v>
       </c>
     </row>
   </sheetData>
